--- a/학습자료/단답형/객관식_고려_연도(왕).xlsx
+++ b/학습자료/단답형/객관식_고려_연도(왕).xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>고려 건국
-1. 918년 : 태조
-2. 930년 : 태조
-3. 1390년 : 공양왕</t>
+1. 1362년 : 공민왕
+2. 918년 : 태조
+3. 987년 : 성종</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 918년 : 태조</t>
+          <t>2, 918년 : 태조</t>
         </is>
       </c>
     </row>
@@ -464,8 +464,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>흑창 설치
-1. 1011년 : 현종
-2. 1234년 : 고종
+1. 1204년 : 신종
+2. 1235년 : 고종
 3. 918년 : 태조</t>
         </is>
       </c>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>송악으로 천도
-1. 919년 : 태조
-2. 1219년 : 고종
-3. 1318년 : 충숙왕</t>
+1. 1362년 : 공민왕
+2. 995년 : 성종
+3. 919년 : 태조</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 919년 : 태조</t>
+          <t>3, 919년 : 태조</t>
         </is>
       </c>
     </row>
@@ -494,8 +494,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>개경에 시전 설치
-1. 1370년 : 공민왕
-2. 1236년 : 고종
+1. 1013년 : 현종
+2. 1129년 : 인종
 3. 919년 : 태조</t>
         </is>
       </c>
@@ -509,9 +509,9 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>학보 설치
-1. 945년 : 혜종
+1. 1274년 : 충렬왕
 2. 930년 : 태조
-3. 1099년 : 숙종</t>
+3. 1119년 : 예종</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,9 +524,9 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>후삼국 통일
-1. 1049년 : 문종
+1. 1363년 : 공민왕
 2. 936년 : 태조
-3. 1238년 : 고종</t>
+3. 1390년 : 공양왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>역분전 지급
-1. 943년 : 태조
-2. 940년 : 태조
-3. 1018년 : 현종</t>
+1. 1258년 : 고종
+2. 992년 : 성종
+3. 940년 : 태조</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 940년 : 태조</t>
+          <t>3, 940년 : 태조</t>
         </is>
       </c>
     </row>
@@ -554,9 +554,9 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>만부교 사건
-1. 1126년 : 인종
+1. 1270년 : 원종
 2. 942년 : 태조
-3. 1260년 : 고종</t>
+3. 1301년 : 충렬왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>훈요 10조 저술
-1. 943년 : 태조
-2. 1225년 : 고종
-3. 1317년 : 충숙왕</t>
+1. 1145년 : 인종
+2. 1020년 : 현종
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 943년 : 태조</t>
+          <t>3, 943년 : 태조</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>왕규의 난
-1. 1383년 : 우왕
-2. 1258년 : 고종
+1. 963년 : 광종
+2. 1104년 : 숙종
 3. 945년 : 혜종</t>
         </is>
       </c>
@@ -599,8 +599,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>서경 천도 실패
-1. 1202년 : 신종
-2. 1254년 : 고종
+1. 1388년 : 창왕
+2. 1372년 : 공민왕
 3. 946년 : 정종</t>
         </is>
       </c>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>광학보 설치
-1. 946년 : 정종
-2. 1119년 : 예종
-3. 1101년 : 숙종</t>
+1. 1234년 : 고종
+2. 946년 : 정종
+3. 1314년 : 충숙왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 946년 : 정종</t>
+          <t>2, 946년 : 정종</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>광군 설치
-1. 1173년 : 명종
-2. 947년 : 정종
-3. 949년 : 광종</t>
+1. 919년 : 태조
+2. 983년 : 성종
+3. 947년 : 정종</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 947년 : 정종</t>
+          <t>3, 947년 : 정종</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>주현공부법 실시
-1. 949년 : 광종
-2. 1097년 : 숙종
-3. 992년 : 성종</t>
+1. 1183년 : 명종
+2. 940년 : 태조
+3. 949년 : 광종</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 949년 : 광종</t>
+          <t>3, 949년 : 광종</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>노비안검법 실시
-1. 1123년 : 인종
-2. 956년 : 광종
-3. 1039년 : 정종</t>
+1. 1182년 : 명종
+2. 1049년 : 문종
+3. 956년 : 광종</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 956년 : 광종</t>
+          <t>3, 956년 : 광종</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>과거제 실시
-1. 958년 : 광종
-2. 1112년 : 예종
-3. 1278년 : 충렬왕</t>
+1. 1388년 : 우왕
+2. 958년 : 광종
+3. 1227년 : 고종</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 958년 : 광종</t>
+          <t>2, 958년 : 광종</t>
         </is>
       </c>
     </row>
@@ -689,659 +689,659 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>승과제도 실시
+1. 1235년 : 고종
+2. 1202년 : 신종
+3. 958년 : 광종</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 958년 : 광종</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>공복 제정
+1. 960년 : 광종
+2. 1029년 : 현종
+3. 1372년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 960년 : 광종</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>송과 국교 수립
+1. 1018년 : 현종
+2. 962년 : 광종
+3. 1370년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 962년 : 광종</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>제위보 설치
+1. 1359년 : 공민왕
+2. 1029년 : 현종
+3. 963년 : 광종</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3, 963년 : 광종</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>황무지 개간 규정 마련
+1. 1241년 : 고종
+2. 963년 : 광종
+3. 1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2, 963년 : 광종</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>귀법사 창건
+1. 1086년 : 선종
+2. 963년 : 광종
+3. 1125년 : 인종</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 963년 : 광종</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>시정 전시과 시행
 1. 1304년 : 충렬왕
+2. 1367년 : 공민왕
+3. 976년 : 경종</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 976년 : 경종</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>최승로의 시무 28조 저술
+1. 1202년 : 신종
+2. 982년 : 성종
+3. 1011년 : 현종</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2, 982년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>최초로 지방관 파견
+1. 983년 : 성종
+2. 1057년 : 문종
+3. 1231년 : 고종</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1, 983년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>의창 설치
+1. 986년 : 성종
+2. 1218년 : 고종
+3. 936년 : 태조</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1, 986년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>거란의 정안국 격파
+1. 1112년 : 예종
+2. 1366년 : 공민왕
+3. 986년 : 성종</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 986년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>지방 12목에 경학박사 의학박사 파견
+1. 1135년 : 인종
+2. 987년 : 성종
+3. 1109년 : 예종</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 987년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>노비환천법 실시
+1. 1010년 : 현종
+2. 1274년 : 원종
+3. 987년 : 성종</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 987년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>비서성 수서원 설치
+1. 1039년 : 정종
+2. 990년 : 성종
+3. 1317년 : 충숙왕</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 990년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>국자감 설치 및 정비
+1. 956년 : 광종
+2. 992년 : 성종
+3. 943년 : 태조</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 992년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>상평창 설치
+1. 993년 : 성종
+2. 1182년 : 명종
+3. 1076년 : 문종</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 993년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>거란의 1차 침입 및 서희의 강동 6주 획득
+1. 993년 : 성종
+2. 1101년 : 숙종
+3. 1363년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 993년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>문산계 무산계 정비
+1. 1067년 : 문종
+2. 1352년 : 공민왕
+3. 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 995년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>문신월과법 실시
+1. 963년 : 광종
+2. 1314년 : 충숙왕
+3. 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 995년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>6위 설치
+1. 995년 : 성종
+2. 1231년 : 고종
+3. 1275년 : 충렬왕</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 995년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3경 체제 완성
+1. 1388년 : 창왕
+2. 1116년 : 예종
+3. 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 995년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>건원중보 발행
+1. 1352년 : 공민왕
+2. 1254년 : 고종
+3. 996년 : 성종</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 996년 : 성종</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>개정 전시과 시행
+1. 1234년 : 고종
+2. 1363년 : 공민왕
+3. 998년 : 목종</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 998년 : 목종</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>강조의 정변
+1. 1231년 : 고종
+2. 1009년 : 목종
+3. 1044년 : 정종</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 1009년 : 목종</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>거란의 2차 침입
+1. 1010년 : 현종
+2. 1254년 : 고종
+3. 1209년 : 희종</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 1010년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>초조대장경 간행 시작
+1. 1363년 : 공민왕
+2. 1011년 : 현종
+3. 1237년 : 고종</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 1011년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7대실록 편찬 시작
+1. 960년 : 광종
+2. 1013년 : 현종
+3. 1202년 : 신종</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 1013년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>현화사 건립
+1. 1129년 : 인종
+2. 1018년 : 현종
+3. 976년 : 경종</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5도 양계 4도호부 8목 및 3경 정비
+1. 1018년 : 현종
+2. 1225년 : 고종
+3. 1101년 : 숙종</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5도에 안찰사 파견
+1. 1018년 : 현종
+2. 1241년 : 고종
+3. 1372년 : 공민왕</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>거란의 3차 침입
+1. 1271년 : 원종
+2. 1018년 : 현종
+3. 1182년 : 명종</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>강감찬의 흥화진 전투
+1. 1018년 : 현종
+2. 1126년 : 인종
+3. 918년 : 태조</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 1018년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>귀주대첩
+1. 1019년 : 현종
+2. 1259년 : 고종
+3. 1391년 : 공양왕</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1, 1019년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>최치원 문창후에 추시 및 문묘에 배향
+1. 1020년 : 현종
+2. 1287년 : 충렬왕
+3. 1392년 : 공양왕</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1, 1020년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>개경에 나성 축조
+1. 990년 : 성종
+2. 1029년 : 현종
+3. 998년 : 목종</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2, 1029년 : 현종</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>천리장성 축조 시작
+1. 1200년 : 신종
+2. 1119년 : 예종
+3. 1033년 : 덕종</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3, 1033년 : 덕종</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7대실록 완성
+1. 1173년 : 명종
+2. 1034년 : 덕종
+3. 1204년 : 신종</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2, 1034년 : 덕종</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>천자수모법 실시
+1. 1039년 : 정종
+2. 1198년 : 신종
+3. 1274년 : 충렬왕</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1, 1039년 : 정종</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>천리장성 완공
+1. 986년 : 성종
+2. 1274년 : 충렬왕
+3. 1044년 : 정종</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3, 1044년 : 정종</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>동서 대비원 설치
+1. 1057년 : 문종
+2. 1049년 : 문종
+3. 1097년 : 숙종</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2, 1049년 : 문종</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>최충의 9재 학당 설립
+1. 1055년 : 문종
+2. 1009년 : 목종
+3. 1182년 : 명종</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1, 1055년 : 문종</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>삼복제 실시
+1. 1057년 : 문종
+2. 1258년 : 고종
+3. 1218년 : 고종</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1, 1057년 : 문종</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>남경 설치
+1. 1135년 : 인종
+2. 1067년 : 문종
+3. 947년 : 정종</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2, 1067년 : 문종</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>경정 전시과 시행
+1. 1057년 : 문종
 2. 1076년 : 문종
 3. 958년 : 광종</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 958년 : 광종</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>공복 제정
-1. 992년 : 성종
-2. 960년 : 광종
-3. 1044년 : 정종</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 960년 : 광종</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>송과 국교 수립
-1. 1231년 : 고종
-2. 962년 : 광종
-3. 1173년 : 명종</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2, 962년 : 광종</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>제위보 설치
-1. 1359년 : 공민왕
-2. 963년 : 광종
-3. 1104년 : 숙종</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2, 963년 : 광종</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>황무지 개간 규정 마련
-1. 963년 : 광종
-2. 1278년 : 충렬왕
-3. 1231년 : 고종</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1, 963년 : 광종</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>귀법사 창건
-1. 1109년 : 예종
-2. 963년 : 광종
-3. 1086년 : 선종</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 963년 : 광종</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>시정 전시과 시행
-1. 1101년 : 숙종
-2. 1033년 : 덕종
-3. 976년 : 경종</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 976년 : 경종</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>최승로의 시무 28조 저술
-1. 982년 : 성종
-2. 946년 : 정종
-3. 1196년 : 명종</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1, 982년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>최초로 지방관 파견
-1. 983년 : 성종
-2. 936년 : 태조
-3. 976년 : 경종</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1, 983년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>의창 설치
-1. 936년 : 태조
-2. 1279년 : 충렬왕
-3. 986년 : 성종</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3, 986년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>거란의 정안국 격파
-1. 1039년 : 정종
-2. 1357년 : 공민왕
-3. 986년 : 성종</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3, 986년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>지방 12목에 경학박사 의학박사 파견
-1. 1274년 : 충렬왕
-2. 987년 : 성종
-3. 1086년 : 선종</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 987년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>노비환천법 실시
-1. 987년 : 성종
-2. 1009년 : 목종
-3. 1274년 : 충렬왕</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 987년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>비서성 수서원 설치
-1. 1236년 : 고종
-2. 990년 : 성종
-3. 1376년 : 우왕</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 990년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>국자감 설치 및 정비
-1. 936년 : 태조
-2. 992년 : 성종
-3. 986년 : 성종</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 992년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>상평창 설치
-1. 1370년 : 공민왕
-2. 993년 : 성종
-3. 1390년 : 공양왕</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 993년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>거란의 1차 침입 및 서희의 강동 6주 획득
-1. 993년 : 성종
-2. 1129년 : 인종
-3. 1125년 : 인종</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 993년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>문산계 무산계 정비
-1. 995년 : 성종
-2. 1218년 : 고종
-3. 1279년 : 충렬왕</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 995년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>문신월과법 실시
-1. 995년 : 성종
-2. 963년 : 광종
-3. 1309년 : 충선왕</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1, 995년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>6위 설치
-1. 995년 : 성종
-2. 1170년 : 의종
-3. 1301년 : 충렬왕</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 995년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>3경 체제 완성
-1. 1200년 : 신종
-2. 1259년 : 고종
-3. 995년 : 성종</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 995년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>건원중보 발행
-1. 945년 : 혜종
-2. 1301년 : 충렬왕
-3. 996년 : 성종</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 996년 : 성종</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>개정 전시과 시행
-1. 940년 : 태조
-2. 998년 : 목종
-3. 1202년 : 신종</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 998년 : 목종</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>강조의 정변
-1. 1009년 : 목종
-2. 1232년 : 고종
-3. 1055년 : 문종</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 1009년 : 목종</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>거란의 2차 침입
-1. 1112년 : 예종
-2. 1010년 : 현종
-3. 958년 : 광종</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 1010년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>초조대장경 간행 시작
-1. 1270년 : 원종
-2. 1086년 : 선종
-3. 1011년 : 현종</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 1011년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>7대실록 편찬 시작
-1. 1013년 : 현종
-2. 986년 : 성종
-3. 1104년 : 숙종</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1, 1013년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>현화사 건립
-1. 1367년 : 공민왕
-2. 1018년 : 현종
-3. 996년 : 성종</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>5도 양계 4도호부 8목 및 3경 정비
-1. 1176년 : 명종
-2. 1308년 : 충선왕
-3. 1018년 : 현종</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>5도에 안찰사 파견
-1. 976년 : 경종
-2. 1018년 : 현종
-3. 1133년 : 인종</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>거란의 3차 침입
-1. 936년 : 태조
-2. 1018년 : 현종
-3. 1020년 : 현종</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>강감찬의 흥화진 전투
-1. 1018년 : 현종
-2. 963년 : 광종
-3. 1183년 : 명종</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1, 1018년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>귀주대첩
-1. 1232년 : 고종
-2. 1019년 : 현종
-3. 1253년 : 고종</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2, 1019년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>최치원 문창후에 추시 및 문묘에 배향
-1. 1049년 : 문종
-2. 1202년 : 신종
-3. 1020년 : 현종</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3, 1020년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>개경에 나성 축조
-1. 1314년 : 충숙왕
-2. 1029년 : 현종
-3. 990년 : 성종</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2, 1029년 : 현종</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>천리장성 축조 시작
-1. 1298년 : 충선왕
-2. 1033년 : 덕종
-3. 1109년 : 예종</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2, 1033년 : 덕종</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>7대실록 완성
-1. 1034년 : 덕종
-2. 998년 : 목종
-3. 1301년 : 충렬왕</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1, 1034년 : 덕종</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>천자수모법 실시
-1. 919년 : 태조
-2. 1392년 : 공양왕
-3. 1039년 : 정종</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>3, 1039년 : 정종</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>천리장성 완공
-1. 1173년 : 명종
-2. 1314년 : 충숙왕
-3. 1044년 : 정종</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>3, 1044년 : 정종</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>동서 대비원 설치
-1. 982년 : 성종
-2. 1357년 : 공민왕
-3. 1049년 : 문종</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>3, 1049년 : 문종</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>최충의 9재 학당 설립
-1. 1049년 : 문종
-2. 1376년 : 우왕
-3. 1055년 : 문종</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>3, 1055년 : 문종</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>삼복제 실시
-1. 1366년 : 공민왕
-2. 1112년 : 예종
-3. 1057년 : 문종</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3, 1057년 : 문종</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>남경 설치
-1. 1119년 : 예종
-2. 1067년 : 문종
-3. 1241년 : 고종</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2, 1067년 : 문종</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>경정 전시과 시행
-1. 1076년 : 문종
-2. 1347년 : 충목왕
-3. 1125년 : 인종</t>
-        </is>
-      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 1076년 : 문종</t>
+          <t>2, 1076년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>기인선상법 실시
-1. 1077년 : 문종
-2. 1362년 : 공민왕
-3. 1304년 : 충렬왕</t>
+1. 996년 : 성종
+2. 1125년 : 인종
+3. 1077년 : 문종</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1, 1077년 : 문종</t>
+          <t>3, 1077년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1364,8 +1364,8 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>교장도감 설치
-1. 1357년 : 공민왕
-2. 1231년 : 고종
+1. 1259년 : 고종
+2. 1254년 : 고종
 3. 1086년 : 선종</t>
         </is>
       </c>
@@ -1379,14 +1379,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>주전도감 설치
-1. 1057년 : 문종
-2. 1097년 : 숙종
-3. 1034년 : 덕종</t>
+1. 1097년 : 숙종
+2. 983년 : 성종
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2, 1097년 : 숙종</t>
+          <t>1, 1097년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1394,9 +1394,9 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>의천의 국청사 창건 및 천태종 창시
-1. 1260년 : 고종
+1. 1202년 : 신종
 2. 1097년 : 숙종
-3. 1198년 : 신종</t>
+3. 930년 : 태조</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1409,14 +1409,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>김위제의 건의로 남경 건설 추진
-1. 1308년 : 충선왕
-2. 1281년 : 충렬왕
-3. 1099년 : 숙종</t>
+1. 1099년 : 숙종
+2. 930년 : 태조
+3. 1170년 : 의종</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3, 1099년 : 숙종</t>
+          <t>1, 1099년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>서적포 설치
-1. 986년 : 성종
-2. 1029년 : 현종
-3. 1101년 : 숙종</t>
+1. 1234년 : 고종
+2. 1101년 : 숙종
+3. 942년 : 태조</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3, 1101년 : 숙종</t>
+          <t>2, 1101년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1439,14 +1439,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>의천의 교장 간행
-1. 1273년 : 원종
-2. 1101년 : 숙종
-3. 919년 : 태조</t>
+1. 1101년 : 숙종
+2. 1077년 : 문종
+3. 1290년 : 충렬왕</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2, 1101년 : 숙종</t>
+          <t>1, 1101년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1454,8 +1454,8 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>평양에 기자사당 건립
-1. 1125년 : 인종
-2. 1129년 : 인종
+1. 962년 : 광종
+2. 1362년 : 공민왕
 3. 1102년 : 숙종</t>
         </is>
       </c>
@@ -1469,8 +1469,8 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>윤관 별무반 조직
-1. 986년 : 성종
-2. 1301년 : 충렬왕
+1. 1274년 : 원종
+2. 1116년 : 예종
 3. 1104년 : 숙종</t>
         </is>
       </c>
@@ -1484,14 +1484,14 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>별무반의 여진 정벌
-1. 1107년 : 예종
-2. 1174년 : 명종
-3. 960년 : 광종</t>
+1. 958년 : 광종
+2. 1234년 : 고종
+3. 1107년 : 예종</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1, 1107년 : 예종</t>
+          <t>3, 1107년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1499,14 +1499,14 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>동북 9성 축조
-1. 1109년 : 예종
-2. 1108년 : 예종
-3. 1258년 : 고종</t>
+1. 1108년 : 예종
+2. 1099년 : 숙종
+3. 1020년 : 현종</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2, 1108년 : 예종</t>
+          <t>1, 1108년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1514,14 +1514,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>동북 9성 여진에 반환
-1. 1109년 : 예종
-2. 1034년 : 덕종
-3. 1013년 : 현종</t>
+1. 1304년 : 충렬왕
+2. 1308년 : 충선왕
+3. 1109년 : 예종</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1, 1109년 : 예종</t>
+          <t>3, 1109년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1530,8 +1530,8 @@
         <is>
           <t>관학 7재 설치
 1. 1109년 : 예종
-2. 1013년 : 현종
-3. 1112년 : 예종</t>
+2. 1208년 : 희종
+3. 1227년 : 고종</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1544,14 +1544,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>구제도감 설치
-1. 1109년 : 예종
-2. 1217년 : 고종
-3. 1260년 : 고종</t>
+1. 942년 : 태조
+2. 1049년 : 문종
+3. 1109년 : 예종</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1, 1109년 : 예종</t>
+          <t>3, 1109년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1559,14 +1559,14 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>혜민국 설치
-1. 1389년 : 창왕
-2. 1112년 : 예종
-3. 1097년 : 숙종</t>
+1. 1104년 : 숙종
+2. 1259년 : 고종
+3. 1112년 : 예종</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2, 1112년 : 예종</t>
+          <t>3, 1112년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1574,14 +1574,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>청연각 보문각 설치
-1. 1055년 : 문종
-2. 1116년 : 예종
-3. 1227년 : 고종</t>
+1. 1116년 : 예종
+2. 1301년 : 충렬왕
+3. 1275년 : 충렬왕</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2, 1116년 : 예종</t>
+          <t>1, 1116년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1589,14 +1589,14 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>양현고 설치
-1. 1145년 : 인종
-2. 1366년 : 공민왕
-3. 1119년 : 예종</t>
+1. 1227년 : 고종
+2. 1119년 : 예종
+3. 947년 : 정종</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3, 1119년 : 예종</t>
+          <t>2, 1119년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>송나라 서긍의 고려도경 저술
-1. 919년 : 태조
-2. 1391년 : 공양왕
-3. 1123년 : 인종</t>
+1. 1359년 : 공민왕
+2. 1123년 : 인종
+3. 1097년 : 숙종</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3, 1123년 : 인종</t>
+          <t>2, 1123년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1619,8 +1619,8 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>이자겸의 금 사대관계 수용
-1. 1055년 : 문종
-2. 1377년 : 우왕
+1. 1260년 : 고종
+2. 1029년 : 현종
 3. 1125년 : 인종</t>
         </is>
       </c>
@@ -1634,14 +1634,14 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>이자겸의 난
-1. 1363년 : 공민왕
-2. 1126년 : 인종
-3. 1218년 : 고종</t>
+1. 1281년 : 충렬왕
+2. 1010년 : 현종
+3. 1126년 : 인종</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2, 1126년 : 인종</t>
+          <t>3, 1126년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1649,14 +1649,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>유신지교 15조 발표
-1. 918년 : 태조
-2. 1127년 : 인종
-3. 1108년 : 예종</t>
+1. 1135년 : 인종
+2. 1174년 : 명종
+3. 1127년 : 인종</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2, 1127년 : 인종</t>
+          <t>3, 1127년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1664,8 +1664,8 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>서경에 대화궁 건립
-1. 942년 : 태조
-2. 983년 : 성종
+1. 1127년 : 인종
+2. 930년 : 태조
 3. 1129년 : 인종</t>
         </is>
       </c>
@@ -1679,14 +1679,14 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>무학재 및 무과 폐지
-1. 947년 : 정종
-2. 1170년 : 의종
-3. 1133년 : 인종</t>
+1. 1198년 : 신종
+2. 1133년 : 인종
+3. 1260년 : 고종</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3, 1133년 : 인종</t>
+          <t>2, 1133년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1694,14 +1694,14 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>묘청의 서경 천도 운동
-1. 1274년 : 원종
-2. 1135년 : 인종
-3. 947년 : 정종</t>
+1. 1135년 : 인종
+2. 992년 : 성종
+3. 1104년 : 숙종</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2, 1135년 : 인종</t>
+          <t>1, 1135년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1709,14 +1709,14 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>김부식의 삼국사기 편찬
-1. 1145년 : 인종
-2. 1363년 : 공민왕
-3. 992년 : 성종</t>
+1. 947년 : 정종
+2. 1145년 : 인종
+3. 976년 : 경종</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1, 1145년 : 인종</t>
+          <t>2, 1145년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1724,8 +1724,8 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>이의방 정중부의 무신정변 발발
-1. 1227년 : 고종
-2. 1218년 : 고종
+1. 1176년 : 명종
+2. 919년 : 태조
 3. 1170년 : 의종</t>
         </is>
       </c>
@@ -1739,9 +1739,9 @@
       <c r="A88" t="inlineStr">
         <is>
           <t>김보당의 난
-1. 1309년 : 충선왕
+1. 963년 : 광종
 2. 1173년 : 명종
-3. 1227년 : 고종</t>
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1754,14 +1754,14 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>귀법사 흥왕사 왕륜사 증광사 봉기
-1. 1174년 : 명종
-2. 1196년 : 명종
-3. 976년 : 경종</t>
+1. 1208년 : 희종
+2. 1389년 : 창왕
+3. 1174년 : 명종</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1, 1174년 : 명종</t>
+          <t>3, 1174년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1770,8 +1770,8 @@
         <is>
           <t>조위총의 난
 1. 1174년 : 명종
-2. 1009년 : 목종
-3. 1112년 : 예종</t>
+2. 1235년 : 고종
+3. 1076년 : 문종</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1784,14 +1784,14 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>정중부 집권
-1. 1044년 : 정종
-2. 1174년 : 명종
-3. 1107년 : 예종</t>
+1. 1174년 : 명종
+2. 1237년 : 고종
+3. 945년 : 혜종</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2, 1174년 : 명종</t>
+          <t>1, 1174년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1800,8 +1800,8 @@
         <is>
           <t>망이 망소이의 난
 1. 1176년 : 명종
-2. 1278년 : 충렬왕
-3. 1274년 : 충렬왕</t>
+2. 1376년 : 우왕
+3. 947년 : 정종</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1814,14 +1814,14 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>경대승 집권
-1. 1204년 : 신종
-2. 960년 : 광종
-3. 1179년 : 명종</t>
+1. 1010년 : 현종
+2. 1179년 : 명종
+3. 963년 : 광종</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3, 1179년 : 명종</t>
+          <t>2, 1179년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1829,14 +1829,14 @@
       <c r="A94" t="inlineStr">
         <is>
           <t>전주 관노의 난
-1. 958년 : 광종
-2. 1182년 : 명종
-3. 918년 : 태조</t>
+1. 1182년 : 명종
+2. 1352년 : 공민왕
+3. 1125년 : 인종</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2, 1182년 : 명종</t>
+          <t>1, 1182년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1844,14 +1844,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>이의민 집권
-1. 1179년 : 명종
-2. 1183년 : 명종
-3. 1109년 : 예종</t>
+1. 1380년 : 우왕
+2. 962년 : 광종
+3. 1183년 : 명종</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2, 1183년 : 명종</t>
+          <t>3, 1183년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1859,9 +1859,9 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>김사미 효심의 난
-1. 1232년 : 고종
+1. 1259년 : 고종
 2. 1193년 : 명종
-3. 1129년 : 인종</t>
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1874,14 +1874,14 @@
       <c r="A97" t="inlineStr">
         <is>
           <t>이규보의 동명왕편 편찬
-1. 1254년 : 고종
-2. 1193년 : 명종
-3. 1208년 : 희종</t>
+1. 942년 : 태조
+2. 1067년 : 문종
+3. 1193년 : 명종</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2, 1193년 : 명종</t>
+          <t>3, 1193년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1890,8 +1890,8 @@
         <is>
           <t>최충헌 집권
 1. 1196년 : 명종
-2. 1009년 : 목종
-3. 1280년 : 충렬왕</t>
+2. 1235년 : 고종
+3. 919년 : 태조</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1904,14 +1904,14 @@
       <c r="A99" t="inlineStr">
         <is>
           <t>최충헌의 봉사 10조 저술
-1. 1361년 : 공민왕
-2. 1196년 : 명종
-3. 1179년 : 명종</t>
+1. 986년 : 성종
+2. 1274년 : 충렬왕
+3. 1196년 : 명종</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2, 1196년 : 명종</t>
+          <t>3, 1196년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>만적의 난
-1. 1198년 : 신종
-2. 1104년 : 숙종
-3. 1133년 : 인종</t>
+1. 1308년 : 충선왕
+2. 1034년 : 덕종
+3. 1198년 : 신종</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1, 1198년 : 신종</t>
+          <t>3, 1198년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1934,14 +1934,14 @@
       <c r="A101" t="inlineStr">
         <is>
           <t>최충헌의 도방 재건 및 확대
-1. 1200년 : 신종
-2. 1232년 : 고종
-3. 1227년 : 고종</t>
+1. 983년 : 성종
+2. 1235년 : 고종
+3. 1200년 : 신종</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1, 1200년 : 신종</t>
+          <t>3, 1200년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1949,14 +1949,14 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>이비 패좌의 난
-1. 949년 : 광종
-2. 1202년 : 신종
-3. 1018년 : 현종</t>
+1. 1202년 : 신종
+2. 1044년 : 정종
+3. 1362년 : 공민왕</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2, 1202년 : 신종</t>
+          <t>1, 1202년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1964,14 +1964,14 @@
       <c r="A103" t="inlineStr">
         <is>
           <t>지눌의 수선사 결사 운동
-1. 1099년 : 숙종
-2. 1392년 : 공양왕
-3. 1204년 : 신종</t>
+1. 1204년 : 신종
+2. 1389년 : 창왕
+3. 1112년 : 예종</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3, 1204년 : 신종</t>
+          <t>1, 1204년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1979,14 +1979,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>요세의 백련사 결사 운동
-1. 1253년 : 고종
-2. 1208년 : 희종
-3. 1390년 : 공양왕</t>
+1. 946년 : 정종
+2. 1287년 : 충렬왕
+3. 1208년 : 희종</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2, 1208년 : 희종</t>
+          <t>3, 1208년 : 희종</t>
         </is>
       </c>
     </row>
@@ -1994,14 +1994,14 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>최충헌의 교정도감 설치
-1. 1275년 : 충렬왕
-2. 1209년 : 희종
-3. 1202년 : 신종</t>
+1. 1209년 : 희종
+2. 1254년 : 고종
+3. 998년 : 목종</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2, 1209년 : 희종</t>
+          <t>1, 1209년 : 희종</t>
         </is>
       </c>
     </row>
@@ -2009,14 +2009,14 @@
       <c r="A106" t="inlineStr">
         <is>
           <t>최광수의 난
-1. 1123년 : 인종
-2. 1388년 : 창왕
-3. 1217년 : 고종</t>
+1. 1217년 : 고종
+2. 947년 : 정종
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3, 1217년 : 고종</t>
+          <t>1, 1217년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2024,14 +2024,14 @@
       <c r="A107" t="inlineStr">
         <is>
           <t>대요수국 1차 침입
-1. 962년 : 광종
-2. 1217년 : 고종
-3. 1225년 : 고종</t>
+1. 1217년 : 고종
+2. 996년 : 성종
+3. 1354년 : 공민왕</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2, 1217년 : 고종</t>
+          <t>1, 1217년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2039,14 @@
       <c r="A108" t="inlineStr">
         <is>
           <t>대요수국 2차 침입
-1. 1309년 : 충선왕
-2. 1127년 : 인종
-3. 1218년 : 고종</t>
+1. 1218년 : 고종
+2. 1109년 : 예종
+3. 919년 : 태조</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3, 1218년 : 고종</t>
+          <t>1, 1218년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2055,8 +2055,8 @@
         <is>
           <t>강동의 역
 1. 1219년 : 고종
-2. 958년 : 광종
-3. 982년 : 성종</t>
+2. 1372년 : 공민왕
+3. 1112년 : 예종</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2069,8 +2069,8 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>여몽협약
-1. 943년 : 태조
-2. 936년 : 태조
+1. 1392년 : 공양왕
+2. 1174년 : 명종
 3. 1219년 : 고종</t>
         </is>
       </c>
@@ -2084,8 +2084,8 @@
       <c r="A111" t="inlineStr">
         <is>
           <t>최우 집권
-1. 1104년 : 숙종
-2. 1101년 : 숙종
+1. 1018년 : 현종
+2. 1377년 : 우왕
 3. 1219년 : 고종</t>
         </is>
       </c>
@@ -2099,14 +2099,14 @@
       <c r="A112" t="inlineStr">
         <is>
           <t>몽골 사신 저고여 피살
-1. 1086년 : 선종
-2. 1198년 : 신종
-3. 1225년 : 고종</t>
+1. 1225년 : 고종
+2. 1280년 : 충렬왕
+3. 1202년 : 신종</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3, 1225년 : 고종</t>
+          <t>1, 1225년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2114,8 +2114,8 @@
       <c r="A113" t="inlineStr">
         <is>
           <t>최우 정방 설치
-1. 1173년 : 명종
-2. 1067년 : 문종
+1. 1019년 : 현종
+2. 1274년 : 원종
 3. 1225년 : 고종</t>
         </is>
       </c>
@@ -2130,8 +2130,8 @@
         <is>
           <t>최우 서방 설치
 1. 1227년 : 고종
-2. 1057년 : 문종
-3. 1218년 : 고종</t>
+2. 1271년 : 원종
+3. 1352년 : 공민왕</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2144,9 +2144,9 @@
       <c r="A115" t="inlineStr">
         <is>
           <t>몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
-1. 1274년 : 원종
+1. 1383년 : 우왕
 2. 1231년 : 고종
-3. 1372년 : 공민왕</t>
+3. 1278년 : 충렬왕</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2159,14 +2159,14 @@
       <c r="A116" t="inlineStr">
         <is>
           <t>최우의 강화도 천도
-1. 1309년 : 충선왕
-2. 1270년 : 원종
-3. 1232년 : 고종</t>
+1. 1232년 : 고종
+2. 1076년 : 문종
+3. 1077년 : 문종</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3, 1232년 : 고종</t>
+          <t>1, 1232년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2174,8 +2174,8 @@
       <c r="A117" t="inlineStr">
         <is>
           <t>몽골의 2차 침입 김윤후의 처인성 전투
-1. 1179년 : 명종
-2. 995년 : 성종
+1. 996년 : 성종
+2. 1200년 : 신종
 3. 1232년 : 고종</t>
         </is>
       </c>
@@ -2189,14 +2189,14 @@
       <c r="A118" t="inlineStr">
         <is>
           <t>초조대장경 및 교장 소실
-1. 1280년 : 충렬왕
-2. 1108년 : 예종
-3. 1232년 : 고종</t>
+1. 1076년 : 문종
+2. 1232년 : 고종
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3, 1232년 : 고종</t>
+          <t>2, 1232년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2204,8 +2204,8 @@
       <c r="A119" t="inlineStr">
         <is>
           <t>상정고금예문 인쇄
-1. 1099년 : 숙종
-2. 1086년 : 선종
+1. 1231년 : 고종
+2. 1198년 : 신종
 3. 1234년 : 고종</t>
         </is>
       </c>
@@ -2219,14 +2219,14 @@
       <c r="A120" t="inlineStr">
         <is>
           <t>몽골의 3차 침입 
-1. 1067년 : 문종
-2. 1033년 : 덕종
-3. 1235년 : 고종</t>
+1. 995년 : 성종
+2. 1235년 : 고종
+3. 945년 : 혜종</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3, 1235년 : 고종</t>
+          <t>2, 1235년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2234,14 +2234,14 @@
       <c r="A121" t="inlineStr">
         <is>
           <t>재조대장경 간행 시작
-1. 1235년 : 고종
-2. 1238년 : 고종
-3. 1308년 : 충선왕</t>
+1. 1271년 : 원종
+2. 919년 : 태조
+3. 1235년 : 고종</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1, 1235년 : 고종</t>
+          <t>3, 1235년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2249,14 +2249,14 @@
       <c r="A122" t="inlineStr">
         <is>
           <t>향약구급방 간행
-1. 1101년 : 숙종
-2. 1236년 : 고종
-3. 949년 : 광종</t>
+1. 1236년 : 고종
+2. 1049년 : 문종
+3. 1356년 : 공민왕</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2, 1236년 : 고종</t>
+          <t>1, 1236년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2264,14 +2264,14 @@
       <c r="A123" t="inlineStr">
         <is>
           <t>이연년의 난
-1. 1359년 : 공민왕
-2. 1013년 : 현종
-3. 1237년 : 고종</t>
+1. 1237년 : 고종
+2. 1225년 : 고종
+3. 1273년 : 원종</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3, 1237년 : 고종</t>
+          <t>1, 1237년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2279,14 +2279,14 @@
       <c r="A124" t="inlineStr">
         <is>
           <t>황룡사 및 황룡사 9층 목탑 소실
-1. 1176년 : 명종
-2. 1273년 : 원종
-3. 1238년 : 고종</t>
+1. 1238년 : 고종
+2. 945년 : 혜종
+3. 1227년 : 고종</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3, 1238년 : 고종</t>
+          <t>1, 1238년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
       <c r="A125" t="inlineStr">
         <is>
           <t>이규보의 동국이상국집 편찬
-1. 1196년 : 명종
-2. 1109년 : 예종
-3. 1241년 : 고종</t>
+1. 1388년 : 창왕
+2. 1241년 : 고종
+3. 1219년 : 고종</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3, 1241년 : 고종</t>
+          <t>2, 1241년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2309,14 +2309,14 @@
       <c r="A126" t="inlineStr">
         <is>
           <t>몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
-1. 1238년 : 고종
-2. 1253년 : 고종
-3. 1367년 : 공민왕</t>
+1. 1234년 : 고종
+2. 1086년 : 선종
+3. 1253년 : 고종</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2, 1253년 : 고종</t>
+          <t>3, 1253년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2324,14 @@
       <c r="A127" t="inlineStr">
         <is>
           <t>몽골의 6차 침입 및 충주 다인철소 전투
-1. 1254년 : 고종
-2. 1304년 : 충렬왕
-3. 947년 : 정종</t>
+1. 1275년 : 충렬왕
+2. 1254년 : 고종
+3. 993년 : 성종</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1, 1254년 : 고종</t>
+          <t>2, 1254년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2340,8 +2340,8 @@
         <is>
           <t>최의 피살 및 최씨정권 붕괴
 1. 1258년 : 고종
-2. 1391년 : 공양왕
-3. 1179년 : 명종</t>
+2. 1067년 : 문종
+3. 1309년 : 충선왕</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2354,9 +2354,9 @@
       <c r="A129" t="inlineStr">
         <is>
           <t>쌍성총관부 설치
-1. 1126년 : 인종
+1. 1101년 : 숙종
 2. 1258년 : 고종
-3. 1198년 : 신종</t>
+3. 1290년 : 충렬왕</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2369,14 +2369,14 @@
       <c r="A130" t="inlineStr">
         <is>
           <t>몽골과 강화 체결
-1. 1259년 : 고종
-2. 1253년 : 고종
-3. 1362년 : 공민왕</t>
+1. 947년 : 정종
+2. 1104년 : 숙종
+3. 1259년 : 고종</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1, 1259년 : 고종</t>
+          <t>3, 1259년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2384,14 +2384,14 @@
       <c r="A131" t="inlineStr">
         <is>
           <t>원 세조 고려에 불개토풍 원칙 선언
-1. 1133년 : 인종
-2. 1260년 : 고종
-3. 946년 : 정종</t>
+1. 1370년 : 공민왕
+2. 1234년 : 고종
+3. 1260년 : 고종</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2, 1260년 : 고종</t>
+          <t>3, 1260년 : 고종</t>
         </is>
       </c>
     </row>
@@ -2399,14 +2399,14 @@
       <c r="A132" t="inlineStr">
         <is>
           <t>무신 정권 붕괴 및 개경 환도
-1. 1174년 : 명종
-2. 1270년 : 원종
-3. 1287년 : 충렬왕</t>
+1. 1145년 : 인종
+2. 940년 : 태조
+3. 1270년 : 원종</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2, 1270년 : 원종</t>
+          <t>3, 1270년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2414,14 +2414,14 @@
       <c r="A133" t="inlineStr">
         <is>
           <t>동녕부 설치
-1. 940년 : 태조
-2. 1196년 : 명종
-3. 1270년 : 원종</t>
+1. 1270년 : 원종
+2. 1372년 : 공민왕
+3. 1173년 : 명종</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3, 1270년 : 원종</t>
+          <t>1, 1270년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2429,14 +2429,14 @@
       <c r="A134" t="inlineStr">
         <is>
           <t>삼별초 항쟁
-1. 1270년 : 원종
-2. 1029년 : 현종
-3. 1018년 : 현종</t>
+1. 1055년 : 문종
+2. 1362년 : 공민왕
+3. 1270년 : 원종</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1, 1270년 : 원종</t>
+          <t>3, 1270년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2444,14 +2444,14 @@
       <c r="A135" t="inlineStr">
         <is>
           <t>녹과전 실시
-1. 1193년 : 명종
-2. 1271년 : 원종
-3. 1125년 : 인종</t>
+1. 1076년 : 문종
+2. 1370년 : 공민왕
+3. 1271년 : 원종</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2, 1271년 : 원종</t>
+          <t>3, 1271년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2459,14 +2459,14 @@
       <c r="A136" t="inlineStr">
         <is>
           <t>탐라총관부 설치
-1. 1347년 : 충목왕
-2. 1133년 : 인종
-3. 1273년 : 원종</t>
+1. 990년 : 성종
+2. 1273년 : 원종
+3. 1317년 : 충숙왕</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3, 1273년 : 원종</t>
+          <t>2, 1273년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2474,14 +2474,14 @@
       <c r="A137" t="inlineStr">
         <is>
           <t>결혼도감 설치
-1. 1020년 : 현종
-2. 1238년 : 고종
-3. 1274년 : 원종</t>
+1. 1274년 : 원종
+2. 1366년 : 공민왕
+3. 1173년 : 명종</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3, 1274년 : 원종</t>
+          <t>1, 1274년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2490,8 +2490,8 @@
         <is>
           <t>원나라의 1차 일본 원정
 1. 1274년 : 충렬왕
-2. 1357년 : 공민왕
-3. 1193년 : 명종</t>
+2. 986년 : 성종
+3. 1259년 : 고종</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2504,14 +2504,14 @@
       <c r="A139" t="inlineStr">
         <is>
           <t>국자감을 국학으로 개칭
-1. 1318년 : 충숙왕
-2. 1275년 : 충렬왕
-3. 1362년 : 공민왕</t>
+1. 976년 : 경종
+2. 1274년 : 원종
+3. 1275년 : 충렬왕</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2, 1275년 : 충렬왕</t>
+          <t>3, 1275년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2519,8 +2519,8 @@
       <c r="A140" t="inlineStr">
         <is>
           <t>지원보초 유통
-1. 1388년 : 우왕
-2. 986년 : 성종
+1. 1377년 : 우왕
+2. 1077년 : 문종
 3. 1278년 : 충렬왕</t>
         </is>
       </c>
@@ -2534,8 +2534,8 @@
       <c r="A141" t="inlineStr">
         <is>
           <t>도병마사 도평의사사로 개칭
-1. 1377년 : 우왕
-2. 1125년 : 인종
+1. 1034년 : 덕종
+2. 1198년 : 신종
 3. 1279년 : 충렬왕</t>
         </is>
       </c>
@@ -2549,8 +2549,8 @@
       <c r="A142" t="inlineStr">
         <is>
           <t>원나라의 정동행성 설치
-1. 1217년 : 고종
-2. 1179년 : 명종
+1. 1182년 : 명종
+2. 1039년 : 정종
 3. 1280년 : 충렬왕</t>
         </is>
       </c>
@@ -2564,9 +2564,9 @@
       <c r="A143" t="inlineStr">
         <is>
           <t>원나라의 2차 일본 원정
-1. 1314년 : 충숙왕
+1. 1298년 : 충선왕
 2. 1281년 : 충렬왕
-3. 1274년 : 원종</t>
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2580,8 +2580,8 @@
         <is>
           <t>원나라의 만호부 설치
 1. 1281년 : 충렬왕
-2. 1372년 : 공민왕
-3. 1039년 : 정종</t>
+2. 1123년 : 인종
+3. 1173년 : 명종</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2594,14 +2594,14 @@
       <c r="A145" t="inlineStr">
         <is>
           <t>일연 삼국유사 편찬
-1. 1281년 : 충렬왕
-2. 1182년 : 명종
-3. 995년 : 성종</t>
+1. 992년 : 성종
+2. 1055년 : 문종
+3. 1281년 : 충렬왕</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1, 1281년 : 충렬왕</t>
+          <t>3, 1281년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2609,8 +2609,8 @@
       <c r="A146" t="inlineStr">
         <is>
           <t>이승휴 제왕운기 저술
-1. 1013년 : 현종
-2. 1392년 : 공양왕
+1. 1383년 : 우왕
+2. 1020년 : 현종
 3. 1287년 : 충렬왕</t>
         </is>
       </c>
@@ -2624,14 +2624,14 @@
       <c r="A147" t="inlineStr">
         <is>
           <t>동녕부 수복
-1. 1290년 : 충렬왕
-2. 1270년 : 원종
-3. 1055년 : 문종</t>
+1. 1108년 : 예종
+2. 1290년 : 충렬왕
+3. 1317년 : 충숙왕</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1, 1290년 : 충렬왕</t>
+          <t>2, 1290년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2640,8 +2640,8 @@
         <is>
           <t>안향 성리학 전래
 1. 1290년 : 충렬왕
-2. 1119년 : 예종
-3. 1009년 : 목종</t>
+2. 1123년 : 인종
+3. 942년 : 태조</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2654,14 +2654,14 @@
       <c r="A149" t="inlineStr">
         <is>
           <t>정방 폐지(충선왕)
-1. 1298년 : 충선왕
-2. 1232년 : 고종
-3. 1238년 : 고종</t>
+1. 1104년 : 숙종
+2. 1234년 : 고종
+3. 1298년 : 충선왕</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1, 1298년 : 충선왕</t>
+          <t>3, 1298년 : 충선왕</t>
         </is>
       </c>
     </row>
@@ -2669,14 +2669,14 @@
       <c r="A150" t="inlineStr">
         <is>
           <t>사림원 설치
-1. 1298년 : 충선왕
-2. 1390년 : 공양왕
-3. 1287년 : 충렬왕</t>
+1. 982년 : 성종
+2. 1049년 : 문종
+3. 1298년 : 충선왕</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1, 1298년 : 충선왕</t>
+          <t>3, 1298년 : 충선왕</t>
         </is>
       </c>
     </row>
@@ -2684,14 +2684,14 @@
       <c r="A151" t="inlineStr">
         <is>
           <t>탐라총관부 수복
-1. 1198년 : 신종
-2. 1018년 : 현종
-3. 1301년 : 충렬왕</t>
+1. 1108년 : 예종
+2. 1301년 : 충렬왕
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>3, 1301년 : 충렬왕</t>
+          <t>2, 1301년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2699,8 +2699,8 @@
       <c r="A152" t="inlineStr">
         <is>
           <t>섬학전 마련
-1. 1033년 : 덕종
-2. 1237년 : 고종
+1. 1318년 : 충숙왕
+2. 1241년 : 고종
 3. 1304년 : 충렬왕</t>
         </is>
       </c>
@@ -2714,9 +2714,9 @@
       <c r="A153" t="inlineStr">
         <is>
           <t>충선왕 복위교서 발표
-1. 986년 : 성종
+1. 1232년 : 고종
 2. 1308년 : 충선왕
-3. 1314년 : 충숙왕</t>
+3. 1183년 : 명종</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2730,8 +2730,8 @@
         <is>
           <t>국학을 성균관으로 개칭
 1. 1308년 : 충선왕
-2. 1176년 : 명종
-3. 1119년 : 예종</t>
+2. 960년 : 광종
+3. 1097년 : 숙종</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2744,14 +2744,14 @@
       <c r="A155" t="inlineStr">
         <is>
           <t>소금 전매제 실시
-1. 1135년 : 인종
-2. 1317년 : 충숙왕
-3. 1309년 : 충선왕</t>
+1. 1309년 : 충선왕
+2. 960년 : 광종
+3. 1107년 : 예종</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3, 1309년 : 충선왕</t>
+          <t>1, 1309년 : 충선왕</t>
         </is>
       </c>
     </row>
@@ -2759,8 +2759,8 @@
       <c r="A156" t="inlineStr">
         <is>
           <t>입성책동 발생
-1. 1127년 : 인종
-2. 1039년 : 정종
+1. 1126년 : 인종
+2. 1173년 : 명종
 3. 1309년 : 충선왕</t>
         </is>
       </c>
@@ -2774,14 +2774,14 @@
       <c r="A157" t="inlineStr">
         <is>
           <t>충선왕 원나라에 만권당 설치
-1. 1314년 : 충숙왕
-2. 936년 : 태조
-3. 1202년 : 신종</t>
+1. 1304년 : 충렬왕
+2. 1380년 : 우왕
+3. 1314년 : 충숙왕</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1, 1314년 : 충숙왕</t>
+          <t>3, 1314년 : 충숙왕</t>
         </is>
       </c>
     </row>
@@ -2789,8 +2789,8 @@
       <c r="A158" t="inlineStr">
         <is>
           <t>민지 본조편년강목 저술
-1. 1135년 : 인종
-2. 1275년 : 충렬왕
+1. 1361년 : 공민왕
+2. 1357년 : 공민왕
 3. 1317년 : 충숙왕</t>
         </is>
       </c>
@@ -2804,14 +2804,14 @@
       <c r="A159" t="inlineStr">
         <is>
           <t>찰리변위도감 설치
-1. 1227년 : 고종
-2. 1318년 : 충숙왕
-3. 998년 : 목종</t>
+1. 1145년 : 인종
+2. 1388년 : 창왕
+3. 1318년 : 충숙왕</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2, 1318년 : 충숙왕</t>
+          <t>3, 1318년 : 충숙왕</t>
         </is>
       </c>
     </row>
@@ -2819,14 +2819,14 @@
       <c r="A160" t="inlineStr">
         <is>
           <t>사심관제도 폐지
-1. 1057년 : 문종
-2. 1067년 : 문종
-3. 1318년 : 충숙왕</t>
+1. 1318년 : 충숙왕
+2. 1273년 : 원종
+3. 1352년 : 공민왕</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3, 1318년 : 충숙왕</t>
+          <t>1, 1318년 : 충숙왕</t>
         </is>
       </c>
     </row>
@@ -2834,14 +2834,14 @@
       <c r="A161" t="inlineStr">
         <is>
           <t>정치도감 설치
-1. 1231년 : 고종
-2. 1107년 : 예종
-3. 1347년 : 충목왕</t>
+1. 1347년 : 충목왕
+2. 1388년 : 우왕
+3. 1125년 : 인종</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3, 1347년 : 충목왕</t>
+          <t>1, 1347년 : 충목왕</t>
         </is>
       </c>
     </row>
@@ -2849,14 +2849,14 @@
       <c r="A162" t="inlineStr">
         <is>
           <t>몽골풍 폐지
-1. 1372년 : 공민왕
-2. 1390년 : 공양왕
-3. 1352년 : 공민왕</t>
+1. 1011년 : 현종
+2. 1352년 : 공민왕
+3. 1126년 : 인종</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3, 1352년 : 공민왕</t>
+          <t>2, 1352년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2864,9 +2864,9 @@
       <c r="A163" t="inlineStr">
         <is>
           <t>정방 폐지(공민왕)
-1. 1218년 : 고종
+1. 1033년 : 덕종
 2. 1352년 : 공민왕
-3. 1234년 : 고종</t>
+3. 1366년 : 공민왕</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2879,8 +2879,8 @@
       <c r="A164" t="inlineStr">
         <is>
           <t>참설직 설치
-1. 1388년 : 우왕
-2. 1308년 : 충선왕
+1. 987년 : 성종
+2. 943년 : 태조
 3. 1354년 : 공민왕</t>
         </is>
       </c>
@@ -2894,9 +2894,9 @@
       <c r="A165" t="inlineStr">
         <is>
           <t>기철 등 친원세력 숙청
-1. 1274년 : 원종
+1. 993년 : 성종
 2. 1356년 : 공민왕
-3. 1077년 : 문종</t>
+3. 1383년 : 우왕</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2909,14 +2909,14 @@
       <c r="A166" t="inlineStr">
         <is>
           <t>정동행성 이문소 폐지
-1. 1217년 : 고종
-2. 1198년 : 신종
-3. 1356년 : 공민왕</t>
+1. 1010년 : 현종
+2. 1356년 : 공민왕
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3, 1356년 : 공민왕</t>
+          <t>2, 1356년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2924,14 +2924,14 @@
       <c r="A167" t="inlineStr">
         <is>
           <t>쌍성총관부 탈환
-1. 1356년 : 공민왕
-2. 1314년 : 충숙왕
-3. 1290년 : 충렬왕</t>
+1. 1287년 : 충렬왕
+2. 1356년 : 공민왕
+3. 1279년 : 충렬왕</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1, 1356년 : 공민왕</t>
+          <t>2, 1356년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2939,9 +2939,9 @@
       <c r="A168" t="inlineStr">
         <is>
           <t>원나라 연호 폐지 및 관제 복구
-1. 1388년 : 창왕
+1. 1278년 : 충렬왕
 2. 1356년 : 공민왕
-3. 1019년 : 현종</t>
+3. 1388년 : 창왕</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2954,14 +2954,14 @@
       <c r="A169" t="inlineStr">
         <is>
           <t>이제현 역사서 사략 저술
-1. 982년 : 성종
-2. 1209년 : 희종
-3. 1357년 : 공민왕</t>
+1. 958년 : 광종
+2. 1357년 : 공민왕
+3. 1174년 : 명종</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3, 1357년 : 공민왕</t>
+          <t>2, 1357년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2970,8 +2970,8 @@
         <is>
           <t>홍건적의 1차 침입 및 서경 함락
 1. 1359년 : 공민왕
-2. 1352년 : 공민왕
-3. 1104년 : 숙종</t>
+2. 1388년 : 우왕
+3. 1273년 : 원종</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2984,8 +2984,8 @@
       <c r="A171" t="inlineStr">
         <is>
           <t>홍건적의 2차 침입 및 개경 함락
-1. 1145년 : 인종
-2. 1183년 : 명종
+1. 993년 : 성종
+2. 1298년 : 충선왕
 3. 1361년 : 공민왕</t>
         </is>
       </c>
@@ -2999,9 +2999,9 @@
       <c r="A172" t="inlineStr">
         <is>
           <t>정세운 이방실 개경 수복
-1. 1301년 : 충렬왕
+1. 949년 : 광종
 2. 1362년 : 공민왕
-3. 1101년 : 숙종</t>
+3. 1390년 : 공양왕</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3014,9 +3014,9 @@
       <c r="A173" t="inlineStr">
         <is>
           <t>흥왕사의 변
-1. 983년 : 성종
+1. 1356년 : 공민왕
 2. 1363년 : 공민왕
-3. 1298년 : 충선왕</t>
+3. 1133년 : 인종</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3029,8 +3029,8 @@
       <c r="A174" t="inlineStr">
         <is>
           <t>전민변정도감 재설치
-1. 992년 : 성종
-2. 958년 : 광종
+1. 1298년 : 충선왕
+2. 1182년 : 명종
 3. 1366년 : 공민왕</t>
         </is>
       </c>
@@ -3044,14 +3044,14 @@
       <c r="A175" t="inlineStr">
         <is>
           <t>성균관 순수 유학교육기관으로 개편
-1. 1367년 : 공민왕
-2. 1238년 : 고종
-3. 1366년 : 공민왕</t>
+1. 1018년 : 현종
+2. 1301년 : 충렬왕
+3. 1367년 : 공민왕</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1, 1367년 : 공민왕</t>
+          <t>3, 1367년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -3059,14 +3059,14 @@
       <c r="A176" t="inlineStr">
         <is>
           <t>신진 사대부 등용 위한 과거제 정비
-1. 1367년 : 공민왕
-2. 1271년 : 원종
-3. 986년 : 성종</t>
+1. 1270년 : 원종
+2. 1367년 : 공민왕
+3. 1390년 : 공양왕</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1, 1367년 : 공민왕</t>
+          <t>2, 1367년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -3075,8 +3075,8 @@
         <is>
           <t>명나라 역법인 태통력 채용
 1. 1370년 : 공민왕
-2. 1039년 : 정종
-3. 1390년 : 공양왕</t>
+2. 1308년 : 충선왕
+3. 1039년 : 정종</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3089,14 +3089,14 @@
       <c r="A178" t="inlineStr">
         <is>
           <t>이성계의 요동 공격으로 요양 일시 점령
-1. 1129년 : 인종
-2. 1370년 : 공민왕
-3. 1259년 : 고종</t>
+1. 1361년 : 공민왕
+2. 1383년 : 우왕
+3. 1370년 : 공민왕</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2, 1370년 : 공민왕</t>
+          <t>3, 1370년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -3104,14 +3104,14 @@
       <c r="A179" t="inlineStr">
         <is>
           <t>자제위 설치
-1. 918년 : 태조
-2. 1241년 : 고종
-3. 1372년 : 공민왕</t>
+1. 1372년 : 공민왕
+2. 1359년 : 공민왕
+3. 1388년 : 창왕</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3, 1372년 : 공민왕</t>
+          <t>1, 1372년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -3119,14 +3119,14 @@
       <c r="A180" t="inlineStr">
         <is>
           <t>최영의 홍산대첩
-1. 1370년 : 공민왕
-2. 1376년 : 우왕
-3. 996년 : 성종</t>
+1. 1376년 : 우왕
+2. 1278년 : 충렬왕
+3. 1347년 : 충목왕</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2, 1376년 : 우왕</t>
+          <t>1, 1376년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3134,14 +3134,14 @@
       <c r="A181" t="inlineStr">
         <is>
           <t>직지심체요절 간행
-1. 1108년 : 예종
-2. 1377년 : 우왕
-3. 1034년 : 덕종</t>
+1. 1377년 : 우왕
+2. 1067년 : 문종
+3. 1362년 : 공민왕</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2, 1377년 : 우왕</t>
+          <t>1, 1377년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3149,14 +3149,14 @@
       <c r="A182" t="inlineStr">
         <is>
           <t>화통도감 설치
-1. 1104년 : 숙종
-2. 1377년 : 우왕
-3. 1208년 : 희종</t>
+1. 1377년 : 우왕
+2. 1127년 : 인종
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2, 1377년 : 우왕</t>
+          <t>1, 1377년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3164,14 +3164,14 @@
       <c r="A183" t="inlineStr">
         <is>
           <t>최무선의 진포대첩
-1. 962년 : 광종
-2. 1380년 : 우왕
-3. 1077년 : 문종</t>
+1. 1193년 : 명종
+2. 1020년 : 현종
+3. 1380년 : 우왕</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2, 1380년 : 우왕</t>
+          <t>3, 1380년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3179,14 @@
       <c r="A184" t="inlineStr">
         <is>
           <t>이성계의 황산대첩
-1. 1281년 : 충렬왕
-2. 1380년 : 우왕
-3. 1010년 : 현종</t>
+1. 1380년 : 우왕
+2. 918년 : 태조
+3. 1278년 : 충렬왕</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2, 1380년 : 우왕</t>
+          <t>1, 1380년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3194,8 +3194,8 @@
       <c r="A185" t="inlineStr">
         <is>
           <t>정지의 관음포 대첩
-1. 1280년 : 충렬왕
-2. 1390년 : 공양왕
+1. 1135년 : 인종
+2. 983년 : 성종
 3. 1383년 : 우왕</t>
         </is>
       </c>
@@ -3209,8 +3209,8 @@
       <c r="A186" t="inlineStr">
         <is>
           <t>최영의 이인임 일파 축출
-1. 1270년 : 원종
-2. 1258년 : 고종
+1. 949년 : 광종
+2. 1377년 : 우왕
 3. 1388년 : 우왕</t>
         </is>
       </c>
@@ -3224,14 +3224,14 @@
       <c r="A187" t="inlineStr">
         <is>
           <t>명의 철령위 설치 통보
-1. 1044년 : 정종
-2. 1108년 : 예종
-3. 1388년 : 우왕</t>
+1. 1009년 : 목종
+2. 1388년 : 우왕
+3. 1383년 : 우왕</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>3, 1388년 : 우왕</t>
+          <t>2, 1388년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3239,14 +3239,14 @@
       <c r="A188" t="inlineStr">
         <is>
           <t>위화도 회군
-1. 1357년 : 공민왕
-2. 1388년 : 우왕
-3. 1125년 : 인종</t>
+1. 1076년 : 문종
+2. 963년 : 광종
+3. 1388년 : 우왕</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2, 1388년 : 우왕</t>
+          <t>3, 1388년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -3255,8 +3255,8 @@
         <is>
           <t>정방 최종 폐지
 1. 1388년 : 창왕
-2. 1227년 : 고종
-3. 1019년 : 현종</t>
+2. 1366년 : 공민왕
+3. 990년 : 성종</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3269,9 +3269,9 @@
       <c r="A190" t="inlineStr">
         <is>
           <t>박위의 쓰시마 토벌
-1. 919년 : 태조
+1. 1352년 : 공민왕
 2. 1389년 : 창왕
-3. 983년 : 성종</t>
+3. 1235년 : 고종</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3284,14 +3284,14 @@
       <c r="A191" t="inlineStr">
         <is>
           <t>이성계의 창왕 폐위
-1. 1389년 : 창왕
-2. 1145년 : 인종
-3. 1234년 : 고종</t>
+1. 1116년 : 예종
+2. 1389년 : 창왕
+3. 1317년 : 충숙왕</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1, 1389년 : 창왕</t>
+          <t>2, 1389년 : 창왕</t>
         </is>
       </c>
     </row>
@@ -3299,8 +3299,8 @@
       <c r="A192" t="inlineStr">
         <is>
           <t>도평의사사 건의로 무과 설치
-1. 1107년 : 예종
-2. 1129년 : 인종
+1. 996년 : 성종
+2. 949년 : 광종
 3. 1390년 : 공양왕</t>
         </is>
       </c>
@@ -3314,14 +3314,14 @@
       <c r="A193" t="inlineStr">
         <is>
           <t>제위보 폐지
-1. 1135년 : 인종
-2. 1209년 : 희종
-3. 1391년 : 공양왕</t>
+1. 1391년 : 공양왕
+2. 918년 : 태조
+3. 1170년 : 의종</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>3, 1391년 : 공양왕</t>
+          <t>1, 1391년 : 공양왕</t>
         </is>
       </c>
     </row>
@@ -3329,8 +3329,8 @@
       <c r="A194" t="inlineStr">
         <is>
           <t>과전법 실시
-1. 1372년 : 공민왕
-2. 1301년 : 충렬왕
+1. 1202년 : 신종
+2. 1362년 : 공민왕
 3. 1391년 : 공양왕</t>
         </is>
       </c>
@@ -3345,8 +3345,8 @@
         <is>
           <t>저화 발행
 1. 1391년 : 공양왕
-2. 1308년 : 충선왕
-3. 1196년 : 명종</t>
+2. 1362년 : 공민왕
+3. 1281년 : 충렬왕</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3359,8 +3359,8 @@
       <c r="A196" t="inlineStr">
         <is>
           <t>삼군도총제부 설치
-1. 1102년 : 숙종
-2. 1173년 : 명종
+1. 1104년 : 숙종
+2. 960년 : 광종
 3. 1391년 : 공양왕</t>
         </is>
       </c>
@@ -3374,14 +3374,14 @@
       <c r="A197" t="inlineStr">
         <is>
           <t>서적원 설치
-1. 1380년 : 우왕
-2. 1392년 : 공양왕
-3. 1183년 : 명종</t>
+1. 992년 : 성종
+2. 942년 : 태조
+3. 1392년 : 공양왕</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2, 1392년 : 공양왕</t>
+          <t>3, 1392년 : 공양왕</t>
         </is>
       </c>
     </row>
@@ -3389,14 +3389,14 @@
       <c r="A198" t="inlineStr">
         <is>
           <t>정몽주 암살
-1. 1314년 : 충숙왕
-2. 1392년 : 공양왕
-3. 990년 : 성종</t>
+1. 1392년 : 공양왕
+2. 996년 : 성종
+3. 1357년 : 공민왕</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2, 1392년 : 공양왕</t>
+          <t>1, 1392년 : 공양왕</t>
         </is>
       </c>
     </row>
@@ -3404,14 +3404,14 @@
       <c r="A199" t="inlineStr">
         <is>
           <t>고려 멸망
-1. 1238년 : 고종
-2. 1392년 : 공양왕
-3. 1380년 : 우왕</t>
+1. 1101년 : 숙종
+2. 1347년 : 충목왕
+3. 1392년 : 공양왕</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2, 1392년 : 공양왕</t>
+          <t>3, 1392년 : 공양왕</t>
         </is>
       </c>
     </row>
